--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H2">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I2">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J2">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N2">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P2">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q2">
-        <v>2.179649719983556</v>
+        <v>13.52309679428289</v>
       </c>
       <c r="R2">
-        <v>19.616847479852</v>
+        <v>121.707871148546</v>
       </c>
       <c r="S2">
-        <v>0.0003838309124815108</v>
+        <v>0.005978610485334635</v>
       </c>
       <c r="T2">
-        <v>0.0003838309124815106</v>
+        <v>0.005978610485334634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H3">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I3">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J3">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.186352</v>
       </c>
       <c r="O3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P3">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q3">
-        <v>2.785789562042666</v>
+        <v>13.50425247183466</v>
       </c>
       <c r="R3">
-        <v>25.072106058384</v>
+        <v>121.538272246512</v>
       </c>
       <c r="S3">
-        <v>0.0004905706360875141</v>
+        <v>0.005970279341552124</v>
       </c>
       <c r="T3">
-        <v>0.000490570636087514</v>
+        <v>0.005970279341552124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H4">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I4">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J4">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N4">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P4">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q4">
-        <v>0.6419203929257777</v>
+        <v>5.685765996291999</v>
       </c>
       <c r="R4">
-        <v>5.777283536331999</v>
+        <v>51.17189396662799</v>
       </c>
       <c r="S4">
-        <v>0.0001130405899160027</v>
+        <v>0.002513697913998631</v>
       </c>
       <c r="T4">
-        <v>0.0001130405899160026</v>
+        <v>0.002513697913998631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H5">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I5">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J5">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N5">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P5">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q5">
-        <v>3.825442542394667</v>
+        <v>6.041547508982888</v>
       </c>
       <c r="R5">
-        <v>34.428982881552</v>
+        <v>54.37392758084599</v>
       </c>
       <c r="S5">
-        <v>0.0006736509486964782</v>
+        <v>0.002670990220237334</v>
       </c>
       <c r="T5">
-        <v>0.0006736509486964781</v>
+        <v>0.002670990220237334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H6">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I6">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J6">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N6">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P6">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q6">
-        <v>12.58509116563922</v>
+        <v>70.74615888515267</v>
       </c>
       <c r="R6">
-        <v>113.265820490753</v>
+        <v>636.7154299663739</v>
       </c>
       <c r="S6">
-        <v>0.00221620335665987</v>
+        <v>0.03127713524070452</v>
       </c>
       <c r="T6">
-        <v>0.00221620335665987</v>
+        <v>0.03127713524070452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H7">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I7">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J7">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N7">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P7">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q7">
-        <v>0.763828468770111</v>
+        <v>4.107987191656999</v>
       </c>
       <c r="R7">
-        <v>6.874456218930999</v>
+        <v>36.97188472491299</v>
       </c>
       <c r="S7">
-        <v>0.0001345082998701272</v>
+        <v>0.001816156141694118</v>
       </c>
       <c r="T7">
-        <v>0.0001345082998701272</v>
+        <v>0.001816156141694118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>41.95156</v>
       </c>
       <c r="I8">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J8">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N8">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P8">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q8">
-        <v>117.3858533248178</v>
+        <v>150.2390988305511</v>
       </c>
       <c r="R8">
-        <v>1056.47267992336</v>
+        <v>1352.15188947496</v>
       </c>
       <c r="S8">
-        <v>0.02067135777872856</v>
+        <v>0.06642125433541946</v>
       </c>
       <c r="T8">
-        <v>0.02067135777872856</v>
+        <v>0.06642125433541946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>41.95156</v>
       </c>
       <c r="I9">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J9">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>32.186352</v>
       </c>
       <c r="O9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P9">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q9">
         <v>150.0297419010133</v>
@@ -1013,10 +1013,10 @@
         <v>1350.26767710912</v>
       </c>
       <c r="S9">
-        <v>0.02641986563495439</v>
+        <v>0.0663286968722028</v>
       </c>
       <c r="T9">
-        <v>0.02641986563495438</v>
+        <v>0.0663286968722028</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>41.95156</v>
       </c>
       <c r="I10">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J10">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N10">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P10">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q10">
-        <v>34.57086356552889</v>
+        <v>63.16780634191999</v>
       </c>
       <c r="R10">
-        <v>311.1377720897599</v>
+        <v>568.51025707728</v>
       </c>
       <c r="S10">
-        <v>0.006087843375003795</v>
+        <v>0.02792671790170508</v>
       </c>
       <c r="T10">
-        <v>0.006087843375003794</v>
+        <v>0.02792671790170508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>41.95156</v>
       </c>
       <c r="I11">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J11">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N11">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P11">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q11">
-        <v>206.0206431643734</v>
+        <v>67.12047300255111</v>
       </c>
       <c r="R11">
-        <v>1854.18578847936</v>
+        <v>604.0842570229601</v>
       </c>
       <c r="S11">
-        <v>0.03627972454968854</v>
+        <v>0.02967420626933049</v>
       </c>
       <c r="T11">
-        <v>0.03627972454968853</v>
+        <v>0.02967420626933049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>41.95156</v>
       </c>
       <c r="I12">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J12">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N12">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P12">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q12">
-        <v>677.7748057886712</v>
+        <v>785.9767121626934</v>
       </c>
       <c r="R12">
-        <v>6099.97325209804</v>
+        <v>7073.79040946424</v>
       </c>
       <c r="S12">
-        <v>0.1193544631404385</v>
+        <v>0.3474831751963293</v>
       </c>
       <c r="T12">
-        <v>0.1193544631404385</v>
+        <v>0.3474831751963293</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>41.95156</v>
       </c>
       <c r="I13">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J13">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N13">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P13">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q13">
-        <v>41.13626872167556</v>
+        <v>45.63897626932</v>
       </c>
       <c r="R13">
-        <v>370.2264184950799</v>
+        <v>410.75078642388</v>
       </c>
       <c r="S13">
-        <v>0.007243994947795778</v>
+        <v>0.02017715810324231</v>
       </c>
       <c r="T13">
-        <v>0.007243994947795776</v>
+        <v>0.02017715810324231</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H14">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I14">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J14">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N14">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P14">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q14">
-        <v>0.1868142474648889</v>
+        <v>1.950410599458</v>
       </c>
       <c r="R14">
-        <v>1.681328227184</v>
+        <v>17.553695395122</v>
       </c>
       <c r="S14">
-        <v>3.289752587839483E-05</v>
+        <v>0.0008622836498188183</v>
       </c>
       <c r="T14">
-        <v>3.289752587839483E-05</v>
+        <v>0.0008622836498188183</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H15">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I15">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J15">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.186352</v>
       </c>
       <c r="O15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P15">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q15">
-        <v>0.2387655116586667</v>
+        <v>1.947692718576</v>
       </c>
       <c r="R15">
-        <v>2.148889604928</v>
+        <v>17.529234467184</v>
       </c>
       <c r="S15">
-        <v>4.204601471916885E-05</v>
+        <v>0.0008610820647539322</v>
       </c>
       <c r="T15">
-        <v>4.204601471916884E-05</v>
+        <v>0.0008610820647539322</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H16">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I16">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J16">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N16">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P16">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q16">
-        <v>0.05501795726044444</v>
+        <v>0.8200472446439999</v>
       </c>
       <c r="R16">
-        <v>0.495161615344</v>
+        <v>7.380425201795999</v>
       </c>
       <c r="S16">
-        <v>9.688525887684593E-06</v>
+        <v>0.0003625458820476024</v>
       </c>
       <c r="T16">
-        <v>9.688525887684592E-06</v>
+        <v>0.0003625458820476024</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H17">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I17">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J17">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N17">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P17">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q17">
-        <v>0.3278724848426667</v>
+        <v>0.871360937358</v>
       </c>
       <c r="R17">
-        <v>2.950852363584</v>
+        <v>7.842248436222</v>
       </c>
       <c r="S17">
-        <v>5.773753180657419E-05</v>
+        <v>0.0003852318530177176</v>
       </c>
       <c r="T17">
-        <v>5.773753180657418E-05</v>
+        <v>0.0003852318530177176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H18">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I18">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J18">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N18">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P18">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q18">
-        <v>1.078647781719556</v>
+        <v>10.203584301702</v>
       </c>
       <c r="R18">
-        <v>9.707830035476</v>
+        <v>91.83225871531801</v>
       </c>
       <c r="S18">
-        <v>0.0001899472004642553</v>
+        <v>0.004511041887975067</v>
       </c>
       <c r="T18">
-        <v>0.0001899472004642553</v>
+        <v>0.004511041887975067</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H19">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I19">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J19">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N19">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P19">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q19">
-        <v>0.06546650100577778</v>
+        <v>0.5924872004489999</v>
       </c>
       <c r="R19">
-        <v>0.589198509052</v>
+        <v>5.332384804040999</v>
       </c>
       <c r="S19">
-        <v>1.152848853998844E-05</v>
+        <v>0.000261940755354831</v>
       </c>
       <c r="T19">
-        <v>1.152848853998844E-05</v>
+        <v>0.000261940755354831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H20">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I20">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J20">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N20">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P20">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q20">
-        <v>387.6163977842529</v>
+        <v>22.00361918536933</v>
       </c>
       <c r="R20">
-        <v>3488.547580058276</v>
+        <v>198.032572668324</v>
       </c>
       <c r="S20">
-        <v>0.06825828677437606</v>
+        <v>0.009727880409210323</v>
       </c>
       <c r="T20">
-        <v>0.06825828677437606</v>
+        <v>0.009727880409210323</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H21">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I21">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J21">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.186352</v>
       </c>
       <c r="O21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P21">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q21">
-        <v>495.4088288241546</v>
+        <v>21.972957325792</v>
       </c>
       <c r="R21">
-        <v>4458.679459417392</v>
+        <v>197.756615932128</v>
       </c>
       <c r="S21">
-        <v>0.08724026667019068</v>
+        <v>0.009714324689099938</v>
       </c>
       <c r="T21">
-        <v>0.08724026667019068</v>
+        <v>0.009714324689099938</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H22">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I22">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J22">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N22">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P22">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q22">
-        <v>114.1554388711684</v>
+        <v>9.251389061447998</v>
       </c>
       <c r="R22">
-        <v>1027.398949840516</v>
+        <v>83.262501553032</v>
       </c>
       <c r="S22">
-        <v>0.02010248980142482</v>
+        <v>0.004090072894402897</v>
       </c>
       <c r="T22">
-        <v>0.02010248980142482</v>
+        <v>0.004090072894402897</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H23">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I23">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J23">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N23">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P23">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q23">
-        <v>680.2947485639306</v>
+        <v>9.830286117169333</v>
       </c>
       <c r="R23">
-        <v>6122.652737075376</v>
+        <v>88.472575054524</v>
       </c>
       <c r="S23">
-        <v>0.1197982188163901</v>
+        <v>0.004346005397136155</v>
       </c>
       <c r="T23">
-        <v>0.1197982188163901</v>
+        <v>0.004346005397136155</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H24">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I24">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J24">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N24">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P24">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q24">
-        <v>2238.060390477926</v>
+        <v>115.112060692684</v>
       </c>
       <c r="R24">
-        <v>20142.54351430134</v>
+        <v>1036.008546234156</v>
       </c>
       <c r="S24">
-        <v>0.3941168867593778</v>
+        <v>0.05089146247453539</v>
       </c>
       <c r="T24">
-        <v>0.3941168867593778</v>
+        <v>0.05089146247453539</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H25">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I25">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J25">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N25">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P25">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q25">
-        <v>135.8348714819948</v>
+        <v>6.684163188257999</v>
       </c>
       <c r="R25">
-        <v>1222.513843337953</v>
+        <v>60.15746869432199</v>
       </c>
       <c r="S25">
-        <v>0.02392018414231079</v>
+        <v>0.002955092959173497</v>
       </c>
       <c r="T25">
-        <v>0.02392018414231079</v>
+        <v>0.002955092959173497</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H26">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I26">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J26">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N26">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P26">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q26">
-        <v>35.39894666857467</v>
+        <v>80.94145792409311</v>
       </c>
       <c r="R26">
-        <v>318.590520017172</v>
+        <v>728.4731213168382</v>
       </c>
       <c r="S26">
-        <v>0.006233666756686876</v>
+        <v>0.03578451418375111</v>
       </c>
       <c r="T26">
-        <v>0.006233666756686875</v>
+        <v>0.03578451418375111</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H27">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I27">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J27">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>32.186352</v>
       </c>
       <c r="O27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P27">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q27">
-        <v>45.24305682353599</v>
+        <v>80.82866667843733</v>
       </c>
       <c r="R27">
-        <v>407.1875114118239</v>
+        <v>727.458000105936</v>
       </c>
       <c r="S27">
-        <v>0.007967190152077133</v>
+        <v>0.03573464876208107</v>
       </c>
       <c r="T27">
-        <v>0.007967190152077131</v>
+        <v>0.03573464876208107</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H28">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I28">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J28">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N28">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P28">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q28">
-        <v>10.42520986116133</v>
+        <v>34.03171597127599</v>
       </c>
       <c r="R28">
-        <v>93.82688875045199</v>
+        <v>306.285443741484</v>
       </c>
       <c r="S28">
-        <v>0.001835853613144312</v>
+        <v>0.01504554593041276</v>
       </c>
       <c r="T28">
-        <v>0.001835853613144312</v>
+        <v>0.01504554593041276</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H29">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I29">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J29">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N29">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P29">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q29">
-        <v>62.12770579620799</v>
+        <v>36.16121890819311</v>
       </c>
       <c r="R29">
-        <v>559.149352165872</v>
+        <v>325.450970173738</v>
       </c>
       <c r="S29">
-        <v>0.01094053498023585</v>
+        <v>0.01598700695675001</v>
       </c>
       <c r="T29">
-        <v>0.01094053498023585</v>
+        <v>0.01598700695675001</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H30">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I30">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J30">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N30">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P30">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q30">
-        <v>204.3901673315536</v>
+        <v>423.4457040279913</v>
       </c>
       <c r="R30">
-        <v>1839.511505983983</v>
+        <v>3811.011336251922</v>
       </c>
       <c r="S30">
-        <v>0.03599260179737081</v>
+        <v>0.1872068923696485</v>
       </c>
       <c r="T30">
-        <v>0.0359926017973708</v>
+        <v>0.1872068923696485</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H31">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I31">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J31">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N31">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P31">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q31">
-        <v>12.40507728468233</v>
+        <v>24.588042035371</v>
       </c>
       <c r="R31">
-        <v>111.645695562141</v>
+        <v>221.292378318339</v>
       </c>
       <c r="S31">
-        <v>0.002184503358465875</v>
+        <v>0.01087046319069944</v>
       </c>
       <c r="T31">
-        <v>0.002184503358465875</v>
+        <v>0.01087046319069944</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H32">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I32">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J32">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.394385333333334</v>
+        <v>10.74375533333333</v>
       </c>
       <c r="N32">
-        <v>25.183156</v>
+        <v>32.23126600000001</v>
       </c>
       <c r="O32">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="P32">
-        <v>0.09567537230797811</v>
+        <v>0.1190321149511541</v>
       </c>
       <c r="Q32">
-        <v>0.5413623045320001</v>
+        <v>0.5826052017124445</v>
       </c>
       <c r="R32">
-        <v>4.872260740788001</v>
+        <v>5.243446815412001</v>
       </c>
       <c r="S32">
-        <v>9.533255982671325E-05</v>
+        <v>0.0002575718876197859</v>
       </c>
       <c r="T32">
-        <v>9.533255982671323E-05</v>
+        <v>0.0002575718876197859</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H33">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I33">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J33">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>32.186352</v>
       </c>
       <c r="O33">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="P33">
-        <v>0.1222817827454047</v>
+        <v>0.1188662446930353</v>
       </c>
       <c r="Q33">
-        <v>0.691910008944</v>
+        <v>0.5817933462293332</v>
       </c>
       <c r="R33">
-        <v>6.227190080496</v>
+        <v>5.236140116064</v>
       </c>
       <c r="S33">
-        <v>0.0001218436373758576</v>
+        <v>0.0002572129633454321</v>
       </c>
       <c r="T33">
-        <v>0.0001218436373758575</v>
+        <v>0.0002572129633454321</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H34">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I34">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J34">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.472198666666666</v>
+        <v>4.517195999999999</v>
       </c>
       <c r="N34">
-        <v>7.416595999999999</v>
+        <v>13.551588</v>
       </c>
       <c r="O34">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="P34">
-        <v>0.0281769919369066</v>
+        <v>0.05004687624081166</v>
       </c>
       <c r="Q34">
-        <v>0.159434564212</v>
+        <v>0.244955493224</v>
       </c>
       <c r="R34">
-        <v>1.434911077908</v>
+        <v>2.204599439016</v>
       </c>
       <c r="S34">
-        <v>2.807603152998624E-05</v>
+        <v>0.0001082957182446895</v>
       </c>
       <c r="T34">
-        <v>2.807603152998623E-05</v>
+        <v>0.0001082957182446895</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H35">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I35">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J35">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.732752</v>
+        <v>4.799855333333333</v>
       </c>
       <c r="N35">
-        <v>44.198256</v>
+        <v>14.399566</v>
       </c>
       <c r="O35">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="P35">
-        <v>0.167917182348524</v>
+        <v>0.05317851291844169</v>
       </c>
       <c r="Q35">
-        <v>0.950129909232</v>
+        <v>0.2602833551124444</v>
       </c>
       <c r="R35">
-        <v>8.551169183088</v>
+        <v>2.342550196012</v>
       </c>
       <c r="S35">
-        <v>0.0001673155217065084</v>
+        <v>0.0001150722219699869</v>
       </c>
       <c r="T35">
-        <v>0.0001673155217065084</v>
+        <v>0.0001150722219699869</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H36">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I36">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J36">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>48.46838633333333</v>
+        <v>56.206018</v>
       </c>
       <c r="N36">
-        <v>145.405159</v>
+        <v>168.618054</v>
       </c>
       <c r="O36">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="P36">
-        <v>0.5524205434309247</v>
+        <v>0.6227171959850387</v>
       </c>
       <c r="Q36">
-        <v>3.125774703023001</v>
+        <v>3.047902473425333</v>
       </c>
       <c r="R36">
-        <v>28.131972327207</v>
+        <v>27.431122260828</v>
       </c>
       <c r="S36">
-        <v>0.0005504411766134575</v>
+        <v>0.001347488815845924</v>
       </c>
       <c r="T36">
-        <v>0.0005504411766134574</v>
+        <v>0.001347488815845924</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H37">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I37">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J37">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.941697666666666</v>
+        <v>3.263691</v>
       </c>
       <c r="N37">
-        <v>8.825092999999999</v>
+        <v>9.791072999999999</v>
       </c>
       <c r="O37">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="P37">
-        <v>0.03352812723026182</v>
+        <v>0.03615905521151857</v>
       </c>
       <c r="Q37">
-        <v>0.189713024221</v>
+        <v>0.176981259754</v>
       </c>
       <c r="R37">
-        <v>1.707417217989</v>
+        <v>1.592831337786</v>
       </c>
       <c r="S37">
-        <v>3.340799327927001E-05</v>
+        <v>7.82440613543731E-05</v>
       </c>
       <c r="T37">
-        <v>3.340799327927001E-05</v>
+        <v>7.82440613543731E-05</v>
       </c>
     </row>
   </sheetData>
